--- a/210621 - AG thesis/Raw/Raw qPCR files (& effluent metadata)/1910xx-1911xx/Sav5_Audrey_Garcia_Jan6_2020.xlsx
+++ b/210621 - AG thesis/Raw/Raw qPCR files (& effluent metadata)/1910xx-1911xx/Sav5_Audrey_Garcia_Jan6_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\210621 - AG thesis\Raw\Raw qPCR files\1910xx-1911xx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\AG-TL-MUD-human-enteric-viruses-quantitation\210621 - AG thesis\Raw\Raw qPCR files (&amp; effluent metadata)\1910xx-1911xx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740EF5A-6399-4408-A367-E56ED4FECC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1DB0B6-C6C1-43B2-9A0A-7C2C90946F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Setup" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -811,6 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2051,7 +2052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2103,7 +2104,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6655,7 +6656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3887"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0"/>
+    <sheetView topLeftCell="A45" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -83846,11 +83847,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD143"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="86" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="73" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -86519,8 +86523,8 @@
       <c r="E72" t="s">
         <v>76</v>
       </c>
-      <c r="F72" t="s">
-        <v>106</v>
+      <c r="F72" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="G72" t="s">
         <v>79</v>
@@ -86611,8 +86615,8 @@
       <c r="E73" t="s">
         <v>76</v>
       </c>
-      <c r="F73" t="s">
-        <v>106</v>
+      <c r="F73" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="G73" t="s">
         <v>79</v>
@@ -86703,8 +86707,8 @@
       <c r="E74" t="s">
         <v>76</v>
       </c>
-      <c r="F74" t="s">
-        <v>106</v>
+      <c r="F74" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -86795,8 +86799,8 @@
       <c r="E75" t="s">
         <v>76</v>
       </c>
-      <c r="F75" t="s">
-        <v>106</v>
+      <c r="F75" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -86887,8 +86891,8 @@
       <c r="E76" t="s">
         <v>76</v>
       </c>
-      <c r="F76" t="s">
-        <v>106</v>
+      <c r="F76" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G76" t="s">
         <v>79</v>
@@ -86979,8 +86983,8 @@
       <c r="E77" t="s">
         <v>76</v>
       </c>
-      <c r="F77" t="s">
-        <v>106</v>
+      <c r="F77" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G77" t="s">
         <v>79</v>
@@ -87071,8 +87075,8 @@
       <c r="E78" t="s">
         <v>76</v>
       </c>
-      <c r="F78" t="s">
-        <v>106</v>
+      <c r="F78" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -87163,8 +87167,8 @@
       <c r="E79" t="s">
         <v>76</v>
       </c>
-      <c r="F79" t="s">
-        <v>106</v>
+      <c r="F79" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="G79" t="s">
         <v>79</v>
@@ -87255,8 +87259,8 @@
       <c r="E80" t="s">
         <v>76</v>
       </c>
-      <c r="F80" t="s">
-        <v>106</v>
+      <c r="F80" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="G80" t="s">
         <v>79</v>
@@ -87347,8 +87351,8 @@
       <c r="E81" t="s">
         <v>76</v>
       </c>
-      <c r="F81" t="s">
-        <v>106</v>
+      <c r="F81" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="G81" t="s">
         <v>79</v>
@@ -87439,8 +87443,8 @@
       <c r="E82" t="s">
         <v>76</v>
       </c>
-      <c r="F82" t="s">
-        <v>106</v>
+      <c r="F82" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="G82" t="s">
         <v>79</v>
@@ -87531,8 +87535,8 @@
       <c r="E83" t="s">
         <v>76</v>
       </c>
-      <c r="F83" t="s">
-        <v>106</v>
+      <c r="F83" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="G83" t="s">
         <v>79</v>
@@ -87623,8 +87627,8 @@
       <c r="E84" t="s">
         <v>76</v>
       </c>
-      <c r="F84" t="s">
-        <v>106</v>
+      <c r="F84" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G84" t="s">
         <v>79</v>
@@ -87715,8 +87719,8 @@
       <c r="E85" t="s">
         <v>76</v>
       </c>
-      <c r="F85" t="s">
-        <v>106</v>
+      <c r="F85" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G85" t="s">
         <v>79</v>
@@ -87807,8 +87811,8 @@
       <c r="E86" t="s">
         <v>76</v>
       </c>
-      <c r="F86" t="s">
-        <v>106</v>
+      <c r="F86" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G86" t="s">
         <v>79</v>
@@ -87899,8 +87903,8 @@
       <c r="E87" t="s">
         <v>76</v>
       </c>
-      <c r="F87" t="s">
-        <v>106</v>
+      <c r="F87" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="G87" t="s">
         <v>79</v>
@@ -87991,8 +87995,8 @@
       <c r="E88" t="s">
         <v>76</v>
       </c>
-      <c r="F88" t="s">
-        <v>106</v>
+      <c r="F88" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="G88" t="s">
         <v>79</v>
@@ -88083,8 +88087,8 @@
       <c r="E89" t="s">
         <v>76</v>
       </c>
-      <c r="F89" t="s">
-        <v>106</v>
+      <c r="F89" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="G89" t="s">
         <v>79</v>
@@ -88175,8 +88179,8 @@
       <c r="E90" t="s">
         <v>76</v>
       </c>
-      <c r="F90" t="s">
-        <v>106</v>
+      <c r="F90" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="G90" t="s">
         <v>79</v>
@@ -88267,8 +88271,8 @@
       <c r="E91" t="s">
         <v>76</v>
       </c>
-      <c r="F91" t="s">
-        <v>106</v>
+      <c r="F91" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="G91" t="s">
         <v>79</v>
@@ -88359,8 +88363,8 @@
       <c r="E92" t="s">
         <v>76</v>
       </c>
-      <c r="F92" t="s">
-        <v>106</v>
+      <c r="F92" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="G92" t="s">
         <v>79</v>
@@ -88451,8 +88455,8 @@
       <c r="E93" t="s">
         <v>76</v>
       </c>
-      <c r="F93" t="s">
-        <v>106</v>
+      <c r="F93" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="G93" t="s">
         <v>79</v>
@@ -88543,8 +88547,8 @@
       <c r="E94" t="s">
         <v>76</v>
       </c>
-      <c r="F94" t="s">
-        <v>106</v>
+      <c r="F94" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="G94" t="s">
         <v>79</v>
@@ -88635,8 +88639,8 @@
       <c r="E95" t="s">
         <v>76</v>
       </c>
-      <c r="F95" t="s">
-        <v>106</v>
+      <c r="F95" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="G95" t="s">
         <v>79</v>
@@ -93143,8 +93147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A12" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
